--- a/Part 2/truth_table_starter.xlsx
+++ b/Part 2/truth_table_starter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Alexandra\301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Alexandra\301\Project Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF210FB-90A1-4CC0-9B8D-64A8A53A0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC031EE-C4AF-4255-B621-3090F82AC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>instr</t>
   </si>
@@ -149,10 +149,25 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>our choice</t>
-  </si>
-  <si>
     <t>grey = don’t worry about</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>pretty sure this is just r or I type</t>
+  </si>
+  <si>
+    <t>pretty sure this is whether we are overwritting files or not?</t>
+  </si>
+  <si>
+    <t>shampt</t>
+  </si>
+  <si>
+    <t>these are our choice</t>
+  </si>
+  <si>
+    <t>blue = alex wrote in so could be wrong</t>
   </si>
 </sst>
 </file>
@@ -179,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +204,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,12 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -231,6 +251,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,15 +623,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="10.875" style="3"/>
-    <col min="8" max="8" width="10.875" style="10"/>
-    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="9"/>
+    <col min="11" max="11" width="46.125" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -602,7 +657,7 @@
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -625,40 +680,40 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
         <v>100000</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2">
+      <c r="H2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="16">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="L2" s="16">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -666,40 +721,40 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
         <v>100010</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3">
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
         <v>1</v>
       </c>
     </row>
@@ -707,36 +762,36 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="12">
         <v>1000</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="16">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="16">
         <v>1</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="18">
         <v>0</v>
       </c>
     </row>
@@ -744,218 +799,449 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="12">
+        <v>11000</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="19">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="19">
+        <v>11010</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="19">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="19">
+        <v>10010</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="23">
+        <v>1</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="19">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="19">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="19">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="23">
+        <v>1</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="19">
+        <v>10</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="23">
+        <v>1</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="19">
+        <v>101010</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="23">
+        <v>1</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
+      <c r="K12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Part 2/truth_table_starter.xlsx
+++ b/Part 2/truth_table_starter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Alexandra\301\Project Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC031EE-C4AF-4255-B621-3090F82AC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7642C3-293F-426E-8B26-17BB279F6E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -247,12 +247,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,13 +272,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -695,25 +692,25 @@
       <c r="F2" s="11">
         <v>0</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>100000</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="16">
+      <c r="H2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="14">
         <v>1</v>
       </c>
-      <c r="L2" s="16">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="16">
         <v>0</v>
       </c>
     </row>
@@ -739,22 +736,22 @@
       <c r="G3" s="12">
         <v>100010</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="H3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="14">
         <v>1</v>
       </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16">
         <v>1</v>
       </c>
     </row>
@@ -771,27 +768,27 @@
       <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="16" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="J4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="14">
         <v>1</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="14">
         <v>1</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <v>0</v>
       </c>
     </row>
@@ -817,22 +814,22 @@
       <c r="G5" s="12">
         <v>11000</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
         <v>10</v>
       </c>
     </row>
@@ -840,40 +837,40 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>11010</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="22" t="s">
+      <c r="H6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="23">
-        <v>0</v>
-      </c>
-      <c r="L6" s="23">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
         <v>11</v>
       </c>
     </row>
@@ -881,40 +878,40 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="17">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>10010</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="J7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="20">
         <v>1</v>
       </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
         <v>100</v>
       </c>
     </row>
@@ -922,40 +919,40 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19">
-        <v>0</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>10000</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="23">
+      <c r="J8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="20">
         <v>1</v>
       </c>
-      <c r="L8" s="23">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
         <v>101</v>
       </c>
     </row>
@@ -963,40 +960,40 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="19">
-        <v>0</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="23">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="20">
         <v>1</v>
       </c>
-      <c r="L9" s="23">
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
         <v>110</v>
       </c>
     </row>
@@ -1004,40 +1001,40 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19">
-        <v>0</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="17">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="19">
-        <v>10</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="G10" s="17">
+        <v>10</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="20">
         <v>1</v>
       </c>
-      <c r="L10" s="23">
-        <v>0</v>
-      </c>
-      <c r="M10" s="24">
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
         <v>111</v>
       </c>
     </row>
@@ -1045,40 +1042,40 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="17">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>101010</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="23">
+      <c r="H11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="20">
         <v>1</v>
       </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24">
+      <c r="L11" s="20">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
         <v>1000</v>
       </c>
     </row>
@@ -1109,7 +1106,7 @@
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="7"/>

--- a/Part 2/truth_table_starter.xlsx
+++ b/Part 2/truth_table_starter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\Alexandra\301\Project Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7642C3-293F-426E-8B26-17BB279F6E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD9EC4AC-3A13-4178-B5AA-9D683B456FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="85">
   <si>
     <t>instr</t>
   </si>
@@ -149,25 +150,148 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>grey = don’t worry about</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>pretty sure this is just r or I type</t>
-  </si>
-  <si>
-    <t>pretty sure this is whether we are overwritting files or not?</t>
-  </si>
-  <si>
     <t>shampt</t>
   </si>
   <si>
-    <t>these are our choice</t>
-  </si>
-  <si>
-    <t>blue = alex wrote in so could be wrong</t>
+    <t>——Instr_index——</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>clz</t>
+  </si>
+  <si>
+    <t>clo</t>
+  </si>
+  <si>
+    <t>00000 00000 00011</t>
+  </si>
+  <si>
+    <t>in order</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>registers with values</t>
+  </si>
+  <si>
+    <t>values expected</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>00101</t>
+  </si>
+  <si>
+    <t>00110</t>
+  </si>
+  <si>
+    <t>or swapped with below</t>
+  </si>
+  <si>
+    <t>00111</t>
+  </si>
+  <si>
+    <t>01000</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>000000 00001 00000 00010 00000 100000</t>
+  </si>
+  <si>
+    <t>00000 00000 000111</t>
+  </si>
+  <si>
+    <t>00000 00000 000010</t>
+  </si>
+  <si>
+    <t>001000 00000 00001 00000 00000 000011</t>
+  </si>
+  <si>
+    <t>in unsigned binary</t>
+  </si>
+  <si>
+    <t>001000 00010 00011 00000 00000 000111</t>
+  </si>
+  <si>
+    <t>000000 00010 00011 00100 00000 100010</t>
+  </si>
+  <si>
+    <t>000000 00010 00011 00000 00000 011000</t>
+  </si>
+  <si>
+    <t>000000 00000 00000 00101 00000 010010</t>
+  </si>
+  <si>
+    <t>000000 00000 00000 00110 00000 010000</t>
+  </si>
+  <si>
+    <t>000000 00010 00011 00000 00000 011010</t>
+  </si>
+  <si>
+    <t>000000 00000 00000 00111 00000 010010</t>
+  </si>
+  <si>
+    <t>001000 00000 01000 00000 00000 000010</t>
+  </si>
+  <si>
+    <t>001000 00000 00011 01001 00001 000000</t>
+  </si>
+  <si>
+    <t>000000 00000 01001 01010 00010 000010</t>
+  </si>
+  <si>
+    <t>000000 00001 00011 01011 00000 101010</t>
   </si>
 </sst>
 </file>
@@ -178,7 +302,7 @@
     <numFmt numFmtId="164" formatCode="0000"/>
     <numFmt numFmtId="165" formatCode="000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +316,18 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -214,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -231,29 +367,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,6 +417,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -618,21 +793,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="10.875" style="3"/>
-    <col min="8" max="8" width="10.875" style="9"/>
+    <col min="8" max="8" width="10.875" style="7"/>
     <col min="11" max="11" width="46.125" customWidth="1"/>
-    <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="12" max="12" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +829,7 @@
       <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -673,577 +848,1866 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-      <c r="G2" s="14">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
         <v>100000</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="14">
-        <v>1</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-      <c r="M2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
         <v>100010</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="14">
-        <v>1</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>1000</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1</v>
-      </c>
-      <c r="L4" s="14">
-        <v>1</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="9">
         <v>11000</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>10</v>
+      </c>
+      <c r="N5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="13">
         <v>11010</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="H6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="13">
         <v>10010</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="20">
-        <v>1</v>
-      </c>
-      <c r="L7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
+      <c r="J7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="13">
         <v>10000</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="20">
-        <v>1</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
+      <c r="J8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="20">
-        <v>1</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" s="17">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="17">
-        <v>10</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="20">
-        <v>1</v>
-      </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="17">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="13">
         <v>101010</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="20">
-        <v>1</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="21">
+      <c r="H11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
-      <c r="K12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>100011</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21">
+        <v>1</v>
+      </c>
+      <c r="M12" s="22">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>101011</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>1</v>
+      </c>
+      <c r="M13" s="22">
+        <v>10</v>
+      </c>
+      <c r="N13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>100</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>101</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>11</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1001</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="13">
+        <v>100100</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="16">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <v>1001</v>
+      </c>
+      <c r="N21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="13">
+        <v>100101</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1010</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="13">
+        <v>100111</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1011</v>
+      </c>
+      <c r="N23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="13">
+        <v>100110</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>1100</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1100</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1101</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1110</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1111</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>1101</v>
+      </c>
+      <c r="N29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
       <c r="B30" s="4"/>
       <c r="G30" s="4"/>
+      <c r="M30">
+        <v>1110</v>
+      </c>
+      <c r="N30">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C7:F8 E5:F6 F11 E19 D18:F18 C20:F20 D19 F19 F21:F24 C28" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74FD078-0CCE-40BF-811B-BAAD4FCAEAA8}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="41.375" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>100000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100010</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="9">
+        <v>11000</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="13">
+        <v>11010</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="13">
+        <v>10010</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="13">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="13">
+        <v>101010</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="I14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14">
+        <v>536936451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="10">
+        <v>100000</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15">
+        <v>2101280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="I16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16">
+        <v>541261831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="9">
+        <v>100010</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17">
+        <v>4399138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="9">
+        <v>11000</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>4390936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="13">
+        <v>10010</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19">
+        <v>10258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="13">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20">
+        <v>12304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="13">
+        <v>11010</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21">
+        <v>4390938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="13">
+        <v>10010</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22">
+        <v>14354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="13">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23">
+        <v>12304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="I24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24">
+        <v>537395202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25">
+        <v>537086016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26">
+        <v>610434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="13">
+        <v>101010</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27">
+        <v>2316330</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E24:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>